--- a/BackTest/2019-10-26 BackTest FZZ.xlsx
+++ b/BackTest/2019-10-26 BackTest FZZ.xlsx
@@ -976,17 +976,13 @@
         <v>7.269999999999998</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="K17" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
@@ -1015,22 +1011,14 @@
         <v>7.265999999999998</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="K18" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1064,14 +1052,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1099,22 +1081,14 @@
         <v>7.289999999999997</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="K20" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1148,14 +1122,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1189,14 +1157,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1230,14 +1192,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1271,14 +1227,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1312,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1347,18 +1291,18 @@
         <v>7.298</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J26" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M26" t="n">
@@ -1388,15 +1332,15 @@
         <v>7.294</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
+      <c r="J27" t="n">
         <v>7.29</v>
       </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1429,15 +1373,15 @@
         <v>7.291999999999999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
+      <c r="J28" t="n">
         <v>7.29</v>
       </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1476,9 +1420,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1517,9 +1459,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1558,9 +1498,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1599,9 +1537,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1640,9 +1576,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1681,9 +1615,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1722,9 +1654,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1763,9 +1693,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1804,9 +1732,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1845,9 +1771,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1880,17 +1804,13 @@
         <v>7.250000000000002</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="K39" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1923,17 +1843,13 @@
         <v>7.244000000000002</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="K40" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1966,17 +1882,13 @@
         <v>7.232000000000002</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="K41" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2009,17 +1921,13 @@
         <v>7.228000000000002</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="K42" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2052,17 +1960,13 @@
         <v>7.216000000000001</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="K43" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2095,17 +1999,13 @@
         <v>7.202000000000001</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="K44" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2138,17 +2038,13 @@
         <v>7.19</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="K45" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2181,17 +2077,13 @@
         <v>7.176</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="K46" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2224,17 +2116,13 @@
         <v>7.166000000000001</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K47" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2267,17 +2155,13 @@
         <v>7.156000000000001</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="K48" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2310,17 +2194,13 @@
         <v>7.146000000000003</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K49" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2353,17 +2233,13 @@
         <v>7.146000000000003</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>7.13</v>
-      </c>
-      <c r="K50" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2396,17 +2272,13 @@
         <v>7.146000000000003</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="K51" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2439,17 +2311,13 @@
         <v>7.144000000000003</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K52" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2482,17 +2350,13 @@
         <v>7.152000000000003</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>7.13</v>
-      </c>
-      <c r="K53" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2525,17 +2389,13 @@
         <v>7.160000000000002</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="K54" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2568,17 +2428,13 @@
         <v>7.158000000000003</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="K55" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2611,17 +2467,13 @@
         <v>7.158000000000003</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="K56" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2654,17 +2506,13 @@
         <v>7.158000000000003</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K57" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2697,17 +2545,13 @@
         <v>7.174000000000002</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>7.13</v>
-      </c>
-      <c r="K58" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2740,17 +2584,13 @@
         <v>7.190000000000002</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="K59" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2783,17 +2623,13 @@
         <v>7.210000000000003</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="K60" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2826,17 +2662,13 @@
         <v>7.204000000000002</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>7.13</v>
-      </c>
-      <c r="K61" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2869,17 +2701,13 @@
         <v>7.222000000000001</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="K62" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2912,17 +2740,13 @@
         <v>7.196000000000002</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>7.13</v>
-      </c>
-      <c r="K63" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2955,17 +2779,13 @@
         <v>7.172000000000002</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="K64" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2998,17 +2818,13 @@
         <v>7.162000000000003</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="K65" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3041,17 +2857,13 @@
         <v>7.182000000000004</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="K66" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3084,17 +2896,13 @@
         <v>7.178000000000004</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="K67" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3127,17 +2935,13 @@
         <v>7.178000000000004</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="K68" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3170,17 +2974,13 @@
         <v>7.182000000000004</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="K69" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3213,17 +3013,13 @@
         <v>7.172000000000004</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="K70" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3256,17 +3052,13 @@
         <v>7.166000000000004</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="K71" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3299,17 +3091,13 @@
         <v>7.156000000000003</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="K72" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3342,17 +3130,13 @@
         <v>7.156000000000003</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="K73" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3385,17 +3169,13 @@
         <v>7.166000000000004</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="K74" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3428,17 +3208,13 @@
         <v>7.172000000000004</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="K75" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3471,17 +3247,13 @@
         <v>7.178000000000004</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="K76" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3514,17 +3286,13 @@
         <v>7.204000000000005</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="K77" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3557,17 +3325,13 @@
         <v>7.230000000000004</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="K78" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3600,17 +3364,13 @@
         <v>7.238000000000004</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="K79" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3643,17 +3403,13 @@
         <v>7.246000000000004</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="K80" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3686,17 +3442,13 @@
         <v>7.250000000000004</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="K81" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3729,17 +3481,13 @@
         <v>7.234000000000004</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="K82" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3772,17 +3520,13 @@
         <v>7.230000000000006</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="K83" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3815,17 +3559,13 @@
         <v>7.228000000000004</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="K84" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3858,17 +3598,13 @@
         <v>7.222000000000004</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="K85" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3901,17 +3637,13 @@
         <v>7.222000000000003</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="K86" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3944,17 +3676,13 @@
         <v>7.228000000000003</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="K87" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3987,17 +3715,13 @@
         <v>7.220000000000003</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="K88" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4030,17 +3754,13 @@
         <v>7.216000000000003</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="K89" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4073,17 +3793,13 @@
         <v>7.226000000000002</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="K90" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4116,17 +3832,13 @@
         <v>7.230000000000001</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="K91" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4159,17 +3871,13 @@
         <v>7.236000000000002</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="K92" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4202,17 +3910,13 @@
         <v>7.248</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="K93" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4245,17 +3949,13 @@
         <v>7.262</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>7.27</v>
-      </c>
-      <c r="K94" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4288,17 +3988,13 @@
         <v>7.266000000000001</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>7.28</v>
-      </c>
-      <c r="K95" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4331,17 +4027,13 @@
         <v>7.272000000000001</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>7.28</v>
-      </c>
-      <c r="K96" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4374,17 +4066,13 @@
         <v>7.286000000000001</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="K97" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4417,17 +4105,13 @@
         <v>7.300000000000002</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K98" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4460,17 +4144,13 @@
         <v>7.31</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K99" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4503,17 +4183,13 @@
         <v>7.32</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K100" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4546,17 +4222,13 @@
         <v>7.33</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K101" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4589,17 +4261,13 @@
         <v>7.33</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K102" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4632,17 +4300,13 @@
         <v>7.33</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K103" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4675,17 +4339,13 @@
         <v>7.318000000000001</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>7.28</v>
-      </c>
-      <c r="K104" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4718,17 +4378,13 @@
         <v>7.316000000000001</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>7.32</v>
-      </c>
-      <c r="K105" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4761,17 +4417,13 @@
         <v>7.314000000000002</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>7.32</v>
-      </c>
-      <c r="K106" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4804,17 +4456,13 @@
         <v>7.314000000000002</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K107" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4847,17 +4495,13 @@
         <v>7.316000000000003</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K108" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4896,9 +4540,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4937,9 +4579,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4978,9 +4618,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5019,9 +4657,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5060,9 +4696,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5101,9 +4735,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5142,9 +4774,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5183,9 +4813,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5224,9 +4852,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5265,9 +4891,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5306,9 +4930,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5347,9 +4969,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5388,9 +5008,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5429,9 +5047,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5470,9 +5086,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5511,9 +5125,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5552,9 +5164,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5593,9 +5203,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5634,9 +5242,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5675,9 +5281,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5716,9 +5320,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5757,9 +5359,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5798,9 +5398,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5839,9 +5437,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5880,9 +5476,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5921,9 +5515,7 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5962,9 +5554,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6003,9 +5593,7 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6044,9 +5632,7 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6085,9 +5671,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6126,9 +5710,7 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6167,9 +5749,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6208,9 +5788,7 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6249,9 +5827,7 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6290,9 +5866,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6331,9 +5905,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6372,9 +5944,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6413,9 +5983,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6454,9 +6022,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6495,9 +6061,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6536,9 +6100,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6577,9 +6139,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6618,9 +6178,7 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6659,9 +6217,7 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6700,9 +6256,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6741,9 +6295,7 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6782,9 +6334,7 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6823,9 +6373,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6864,9 +6412,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6905,9 +6451,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6946,9 +6490,7 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6987,9 +6529,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7028,9 +6568,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7069,9 +6607,7 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7110,9 +6646,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7151,9 +6685,7 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7192,9 +6724,7 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7233,9 +6763,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7274,9 +6802,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7315,9 +6841,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7356,9 +6880,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7397,9 +6919,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7438,9 +6958,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7479,9 +6997,7 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7520,9 +7036,7 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7561,9 +7075,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7602,9 +7114,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7643,9 +7153,7 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7684,9 +7192,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7725,9 +7231,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7766,9 +7270,7 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7807,9 +7309,7 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7848,9 +7348,7 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7889,9 +7387,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7930,9 +7426,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7971,9 +7465,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8012,9 +7504,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8053,9 +7543,7 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8094,9 +7582,7 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8135,9 +7621,7 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8176,9 +7660,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8217,9 +7699,7 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8258,9 +7738,7 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8299,9 +7777,7 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8340,9 +7816,7 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8381,9 +7855,7 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8422,9 +7894,7 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8463,9 +7933,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8504,9 +7972,7 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8545,9 +8011,7 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8586,9 +8050,7 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8627,9 +8089,7 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8668,9 +8128,7 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8709,9 +8167,7 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8750,9 +8206,7 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8791,9 +8245,7 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8832,9 +8284,7 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8873,9 +8323,7 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8914,9 +8362,7 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8955,9 +8401,7 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8996,9 +8440,7 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9037,9 +8479,7 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9078,9 +8518,7 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9119,9 +8557,7 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9160,9 +8596,7 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9201,9 +8635,7 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9242,9 +8674,7 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9283,9 +8713,7 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9324,9 +8752,7 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9365,9 +8791,7 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9406,9 +8830,7 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9447,9 +8869,7 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9488,9 +8908,7 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9529,9 +8947,7 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9570,9 +8986,7 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9611,9 +9025,7 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9652,9 +9064,7 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9693,9 +9103,7 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9734,9 +9142,7 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9775,9 +9181,7 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9816,9 +9220,7 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9857,9 +9259,7 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9898,9 +9298,7 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9939,9 +9337,7 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9980,9 +9376,7 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10021,9 +9415,7 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10062,9 +9454,7 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10103,9 +9493,7 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10144,9 +9532,7 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10185,9 +9571,7 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10226,9 +9610,7 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10267,9 +9649,7 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10308,9 +9688,7 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10349,9 +9727,7 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10390,9 +9766,7 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10431,9 +9805,7 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10472,9 +9844,7 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10513,9 +9883,7 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10554,9 +9922,7 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10595,9 +9961,7 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10636,9 +10000,7 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10677,9 +10039,7 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10718,9 +10078,7 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10759,9 +10117,7 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10800,9 +10156,7 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10841,9 +10195,7 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10882,9 +10234,7 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10923,9 +10273,7 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10964,9 +10312,7 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11005,9 +10351,7 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11046,9 +10390,7 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11087,9 +10429,7 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11128,9 +10468,7 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11169,9 +10507,7 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11210,9 +10546,7 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11251,9 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11292,9 +10624,7 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11333,9 +10663,7 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11374,9 +10702,7 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11415,9 +10741,7 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11456,9 +10780,7 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11497,9 +10819,7 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11538,9 +10858,7 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11579,9 +10897,7 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11620,9 +10936,7 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11661,9 +10975,7 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11702,9 +11014,7 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11743,9 +11053,7 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11784,9 +11092,7 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11825,9 +11131,7 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11866,9 +11170,7 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11907,9 +11209,7 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11948,9 +11248,7 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11989,9 +11287,7 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12030,9 +11326,7 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12071,9 +11365,7 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12112,9 +11404,7 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12153,9 +11443,7 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12194,9 +11482,7 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12235,9 +11521,7 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12276,9 +11560,7 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12317,9 +11599,7 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12358,9 +11638,7 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12399,9 +11677,7 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12440,9 +11716,7 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12481,9 +11755,7 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12522,9 +11794,7 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12563,9 +11833,7 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12604,9 +11872,7 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12642,19 +11908,17 @@
         <v>0</v>
       </c>
       <c r="I298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="n">
-        <v>7.29</v>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M298" t="n">
-        <v>1.198017832647462</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
@@ -12687,10 +11951,12 @@
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -12718,7 +11984,7 @@
         <v>0</v>
       </c>
       <c r="I300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
@@ -14185,13 +13451,17 @@
         <v>7.808000000000002</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
       </c>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="K342" t="n">
+        <v>7.76</v>
+      </c>
       <c r="L342" t="inlineStr"/>
       <c r="M342" t="n">
         <v>1</v>
@@ -14220,14 +13490,22 @@
         <v>7.842000000000003</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
       </c>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="K343" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -14255,14 +13533,22 @@
         <v>7.882000000000002</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
       </c>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="K344" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -17405,13 +16691,17 @@
         <v>7.518000000000005</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
       </c>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="K434" t="n">
+        <v>7.59</v>
+      </c>
       <c r="L434" t="inlineStr"/>
       <c r="M434" t="n">
         <v>1</v>
@@ -17440,14 +16730,22 @@
         <v>7.546000000000005</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
       </c>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
-      <c r="L435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="K435" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L435" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M435" t="n">
         <v>1</v>
       </c>
@@ -17475,14 +16773,22 @@
         <v>7.538000000000006</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
       </c>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
-      <c r="L436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="K436" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M436" t="n">
         <v>1</v>
       </c>
@@ -17510,14 +16816,22 @@
         <v>7.558000000000005</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
       </c>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
-      <c r="L437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="K437" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M437" t="n">
         <v>1</v>
       </c>
@@ -17545,14 +16859,22 @@
         <v>7.554000000000005</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
       </c>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
-      <c r="L438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K438" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M438" t="n">
         <v>1</v>
       </c>
@@ -17580,14 +16902,22 @@
         <v>7.562000000000006</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
       </c>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
-      <c r="L439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="K439" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M439" t="n">
         <v>1</v>
       </c>
@@ -17621,8 +16951,14 @@
         <v>0</v>
       </c>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
-      <c r="L440" t="inlineStr"/>
+      <c r="K440" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M440" t="n">
         <v>1</v>
       </c>
@@ -17656,8 +16992,14 @@
         <v>0</v>
       </c>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
-      <c r="L441" t="inlineStr"/>
+      <c r="K441" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M441" t="n">
         <v>1</v>
       </c>
@@ -17691,8 +17033,14 @@
         <v>0</v>
       </c>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
-      <c r="L442" t="inlineStr"/>
+      <c r="K442" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M442" t="n">
         <v>1</v>
       </c>
@@ -17726,8 +17074,14 @@
         <v>0</v>
       </c>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
-      <c r="L443" t="inlineStr"/>
+      <c r="K443" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M443" t="n">
         <v>1</v>
       </c>
@@ -17761,8 +17115,14 @@
         <v>0</v>
       </c>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
-      <c r="L444" t="inlineStr"/>
+      <c r="K444" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M444" t="n">
         <v>1</v>
       </c>
@@ -17796,8 +17156,14 @@
         <v>0</v>
       </c>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
-      <c r="L445" t="inlineStr"/>
+      <c r="K445" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M445" t="n">
         <v>1</v>
       </c>
@@ -17831,8 +17197,14 @@
         <v>0</v>
       </c>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
-      <c r="L446" t="inlineStr"/>
+      <c r="K446" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M446" t="n">
         <v>1</v>
       </c>
@@ -17866,8 +17238,14 @@
         <v>0</v>
       </c>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
-      <c r="L447" t="inlineStr"/>
+      <c r="K447" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M447" t="n">
         <v>1</v>
       </c>
@@ -17901,8 +17279,14 @@
         <v>0</v>
       </c>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
-      <c r="L448" t="inlineStr"/>
+      <c r="K448" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M448" t="n">
         <v>1</v>
       </c>
@@ -17936,8 +17320,14 @@
         <v>0</v>
       </c>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
-      <c r="L449" t="inlineStr"/>
+      <c r="K449" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M449" t="n">
         <v>1</v>
       </c>
@@ -17971,8 +17361,14 @@
         <v>0</v>
       </c>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
-      <c r="L450" t="inlineStr"/>
+      <c r="K450" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M450" t="n">
         <v>1</v>
       </c>
@@ -18006,8 +17402,14 @@
         <v>0</v>
       </c>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
-      <c r="L451" t="inlineStr"/>
+      <c r="K451" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M451" t="n">
         <v>1</v>
       </c>
@@ -18041,8 +17443,14 @@
         <v>0</v>
       </c>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
-      <c r="L452" t="inlineStr"/>
+      <c r="K452" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M452" t="n">
         <v>1</v>
       </c>
@@ -18076,8 +17484,14 @@
         <v>0</v>
       </c>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
-      <c r="L453" t="inlineStr"/>
+      <c r="K453" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M453" t="n">
         <v>1</v>
       </c>
@@ -18111,8 +17525,14 @@
         <v>0</v>
       </c>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
-      <c r="L454" t="inlineStr"/>
+      <c r="K454" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M454" t="n">
         <v>1</v>
       </c>
@@ -18146,8 +17566,14 @@
         <v>0</v>
       </c>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
-      <c r="L455" t="inlineStr"/>
+      <c r="K455" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M455" t="n">
         <v>1</v>
       </c>
@@ -18181,8 +17607,14 @@
         <v>0</v>
       </c>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
-      <c r="L456" t="inlineStr"/>
+      <c r="K456" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M456" t="n">
         <v>1</v>
       </c>
@@ -18216,8 +17648,14 @@
         <v>0</v>
       </c>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
-      <c r="L457" t="inlineStr"/>
+      <c r="K457" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M457" t="n">
         <v>1</v>
       </c>
@@ -18251,8 +17689,14 @@
         <v>0</v>
       </c>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
-      <c r="L458" t="inlineStr"/>
+      <c r="K458" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M458" t="n">
         <v>1</v>
       </c>
@@ -18286,8 +17730,14 @@
         <v>0</v>
       </c>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
-      <c r="L459" t="inlineStr"/>
+      <c r="K459" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M459" t="n">
         <v>1</v>
       </c>
@@ -18321,8 +17771,14 @@
         <v>0</v>
       </c>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
-      <c r="L460" t="inlineStr"/>
+      <c r="K460" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M460" t="n">
         <v>1</v>
       </c>
@@ -18356,8 +17812,14 @@
         <v>0</v>
       </c>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
-      <c r="L461" t="inlineStr"/>
+      <c r="K461" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M461" t="n">
         <v>1</v>
       </c>
@@ -18391,8 +17853,14 @@
         <v>0</v>
       </c>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
-      <c r="L462" t="inlineStr"/>
+      <c r="K462" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M462" t="n">
         <v>1</v>
       </c>
@@ -18426,8 +17894,14 @@
         <v>0</v>
       </c>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
-      <c r="L463" t="inlineStr"/>
+      <c r="K463" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M463" t="n">
         <v>1</v>
       </c>
@@ -18461,8 +17935,14 @@
         <v>0</v>
       </c>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
-      <c r="L464" t="inlineStr"/>
+      <c r="K464" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M464" t="n">
         <v>1</v>
       </c>
@@ -18496,8 +17976,14 @@
         <v>0</v>
       </c>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
-      <c r="L465" t="inlineStr"/>
+      <c r="K465" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M465" t="n">
         <v>1</v>
       </c>
@@ -18531,8 +18017,14 @@
         <v>0</v>
       </c>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
-      <c r="L466" t="inlineStr"/>
+      <c r="K466" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M466" t="n">
         <v>1</v>
       </c>
@@ -18566,8 +18058,14 @@
         <v>0</v>
       </c>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
-      <c r="L467" t="inlineStr"/>
+      <c r="K467" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M467" t="n">
         <v>1</v>
       </c>
@@ -18601,8 +18099,14 @@
         <v>0</v>
       </c>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
-      <c r="L468" t="inlineStr"/>
+      <c r="K468" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M468" t="n">
         <v>1</v>
       </c>
@@ -18636,8 +18140,14 @@
         <v>0</v>
       </c>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
-      <c r="L469" t="inlineStr"/>
+      <c r="K469" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M469" t="n">
         <v>1</v>
       </c>
@@ -18671,8 +18181,14 @@
         <v>0</v>
       </c>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
-      <c r="L470" t="inlineStr"/>
+      <c r="K470" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M470" t="n">
         <v>1</v>
       </c>
@@ -18706,8 +18222,14 @@
         <v>0</v>
       </c>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
-      <c r="L471" t="inlineStr"/>
+      <c r="K471" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M471" t="n">
         <v>1</v>
       </c>
@@ -18741,8 +18263,14 @@
         <v>0</v>
       </c>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
-      <c r="L472" t="inlineStr"/>
+      <c r="K472" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M472" t="n">
         <v>1</v>
       </c>
@@ -18776,8 +18304,14 @@
         <v>0</v>
       </c>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
-      <c r="L473" t="inlineStr"/>
+      <c r="K473" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M473" t="n">
         <v>1</v>
       </c>
@@ -18811,8 +18345,14 @@
         <v>0</v>
       </c>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
-      <c r="L474" t="inlineStr"/>
+      <c r="K474" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M474" t="n">
         <v>1</v>
       </c>
@@ -18846,8 +18386,14 @@
         <v>0</v>
       </c>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
-      <c r="L475" t="inlineStr"/>
+      <c r="K475" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M475" t="n">
         <v>1</v>
       </c>
@@ -18881,8 +18427,14 @@
         <v>0</v>
       </c>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
-      <c r="L476" t="inlineStr"/>
+      <c r="K476" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M476" t="n">
         <v>1</v>
       </c>
@@ -18916,8 +18468,14 @@
         <v>0</v>
       </c>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
-      <c r="L477" t="inlineStr"/>
+      <c r="K477" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M477" t="n">
         <v>1</v>
       </c>
@@ -18951,8 +18509,14 @@
         <v>0</v>
       </c>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
-      <c r="L478" t="inlineStr"/>
+      <c r="K478" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M478" t="n">
         <v>1</v>
       </c>
@@ -18986,8 +18550,14 @@
         <v>0</v>
       </c>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
-      <c r="L479" t="inlineStr"/>
+      <c r="K479" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M479" t="n">
         <v>1</v>
       </c>
@@ -19021,8 +18591,14 @@
         <v>0</v>
       </c>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
-      <c r="L480" t="inlineStr"/>
+      <c r="K480" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M480" t="n">
         <v>1</v>
       </c>
@@ -19056,8 +18632,14 @@
         <v>0</v>
       </c>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
-      <c r="L481" t="inlineStr"/>
+      <c r="K481" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M481" t="n">
         <v>1</v>
       </c>
@@ -19091,8 +18673,14 @@
         <v>0</v>
       </c>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
-      <c r="L482" t="inlineStr"/>
+      <c r="K482" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M482" t="n">
         <v>1</v>
       </c>
@@ -19126,8 +18714,14 @@
         <v>0</v>
       </c>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
-      <c r="L483" t="inlineStr"/>
+      <c r="K483" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M483" t="n">
         <v>1</v>
       </c>
@@ -19161,8 +18755,14 @@
         <v>0</v>
       </c>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
-      <c r="L484" t="inlineStr"/>
+      <c r="K484" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M484" t="n">
         <v>1</v>
       </c>
@@ -19196,8 +18796,14 @@
         <v>0</v>
       </c>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
-      <c r="L485" t="inlineStr"/>
+      <c r="K485" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M485" t="n">
         <v>1</v>
       </c>
@@ -19231,8 +18837,14 @@
         <v>0</v>
       </c>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
-      <c r="L486" t="inlineStr"/>
+      <c r="K486" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M486" t="n">
         <v>1</v>
       </c>
@@ -19266,8 +18878,14 @@
         <v>0</v>
       </c>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
-      <c r="L487" t="inlineStr"/>
+      <c r="K487" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M487" t="n">
         <v>1</v>
       </c>
@@ -19301,8 +18919,14 @@
         <v>0</v>
       </c>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
-      <c r="L488" t="inlineStr"/>
+      <c r="K488" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M488" t="n">
         <v>1</v>
       </c>
@@ -19336,8 +18960,14 @@
         <v>0</v>
       </c>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
-      <c r="L489" t="inlineStr"/>
+      <c r="K489" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M489" t="n">
         <v>1</v>
       </c>
@@ -19371,8 +19001,14 @@
         <v>0</v>
       </c>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
-      <c r="L490" t="inlineStr"/>
+      <c r="K490" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M490" t="n">
         <v>1</v>
       </c>
@@ -19406,8 +19042,14 @@
         <v>0</v>
       </c>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
-      <c r="L491" t="inlineStr"/>
+      <c r="K491" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M491" t="n">
         <v>1</v>
       </c>
@@ -19441,8 +19083,14 @@
         <v>0</v>
       </c>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
-      <c r="L492" t="inlineStr"/>
+      <c r="K492" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M492" t="n">
         <v>1</v>
       </c>
@@ -19476,8 +19124,14 @@
         <v>0</v>
       </c>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
-      <c r="L493" t="inlineStr"/>
+      <c r="K493" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M493" t="n">
         <v>1</v>
       </c>
@@ -19511,8 +19165,14 @@
         <v>0</v>
       </c>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
-      <c r="L494" t="inlineStr"/>
+      <c r="K494" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M494" t="n">
         <v>1</v>
       </c>
@@ -19546,8 +19206,14 @@
         <v>0</v>
       </c>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
-      <c r="L495" t="inlineStr"/>
+      <c r="K495" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M495" t="n">
         <v>1</v>
       </c>
@@ -19581,8 +19247,14 @@
         <v>0</v>
       </c>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
-      <c r="L496" t="inlineStr"/>
+      <c r="K496" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M496" t="n">
         <v>1</v>
       </c>
@@ -19616,8 +19288,14 @@
         <v>0</v>
       </c>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
-      <c r="L497" t="inlineStr"/>
+      <c r="K497" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M497" t="n">
         <v>1</v>
       </c>
@@ -19651,8 +19329,14 @@
         <v>0</v>
       </c>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
-      <c r="L498" t="inlineStr"/>
+      <c r="K498" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M498" t="n">
         <v>1</v>
       </c>
@@ -19686,8 +19370,14 @@
         <v>0</v>
       </c>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
-      <c r="L499" t="inlineStr"/>
+      <c r="K499" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M499" t="n">
         <v>1</v>
       </c>
@@ -19721,8 +19411,14 @@
         <v>0</v>
       </c>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
-      <c r="L500" t="inlineStr"/>
+      <c r="K500" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M500" t="n">
         <v>1</v>
       </c>
@@ -19756,8 +19452,14 @@
         <v>0</v>
       </c>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
-      <c r="L501" t="inlineStr"/>
+      <c r="K501" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M501" t="n">
         <v>1</v>
       </c>
@@ -19791,8 +19493,14 @@
         <v>0</v>
       </c>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
-      <c r="L502" t="inlineStr"/>
+      <c r="K502" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M502" t="n">
         <v>1</v>
       </c>
@@ -19826,8 +19534,14 @@
         <v>0</v>
       </c>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
-      <c r="L503" t="inlineStr"/>
+      <c r="K503" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M503" t="n">
         <v>1</v>
       </c>
@@ -19861,8 +19575,14 @@
         <v>0</v>
       </c>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
-      <c r="L504" t="inlineStr"/>
+      <c r="K504" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M504" t="n">
         <v>1</v>
       </c>
@@ -19896,8 +19616,14 @@
         <v>0</v>
       </c>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
-      <c r="L505" t="inlineStr"/>
+      <c r="K505" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M505" t="n">
         <v>1</v>
       </c>
@@ -19931,8 +19657,14 @@
         <v>0</v>
       </c>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
-      <c r="L506" t="inlineStr"/>
+      <c r="K506" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M506" t="n">
         <v>1</v>
       </c>
@@ -19966,8 +19698,14 @@
         <v>0</v>
       </c>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
-      <c r="L507" t="inlineStr"/>
+      <c r="K507" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M507" t="n">
         <v>1</v>
       </c>
@@ -20001,8 +19739,14 @@
         <v>0</v>
       </c>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
-      <c r="L508" t="inlineStr"/>
+      <c r="K508" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M508" t="n">
         <v>1</v>
       </c>
@@ -20036,8 +19780,14 @@
         <v>0</v>
       </c>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
-      <c r="L509" t="inlineStr"/>
+      <c r="K509" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M509" t="n">
         <v>1</v>
       </c>
@@ -20071,8 +19821,14 @@
         <v>0</v>
       </c>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
-      <c r="L510" t="inlineStr"/>
+      <c r="K510" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M510" t="n">
         <v>1</v>
       </c>
@@ -20106,8 +19862,14 @@
         <v>0</v>
       </c>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
-      <c r="L511" t="inlineStr"/>
+      <c r="K511" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M511" t="n">
         <v>1</v>
       </c>
@@ -20141,8 +19903,14 @@
         <v>0</v>
       </c>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
-      <c r="L512" t="inlineStr"/>
+      <c r="K512" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M512" t="n">
         <v>1</v>
       </c>
@@ -20176,8 +19944,14 @@
         <v>0</v>
       </c>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
-      <c r="L513" t="inlineStr"/>
+      <c r="K513" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M513" t="n">
         <v>1</v>
       </c>
@@ -20211,8 +19985,14 @@
         <v>0</v>
       </c>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
-      <c r="L514" t="inlineStr"/>
+      <c r="K514" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M514" t="n">
         <v>1</v>
       </c>
@@ -20246,8 +20026,14 @@
         <v>0</v>
       </c>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
-      <c r="L515" t="inlineStr"/>
+      <c r="K515" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M515" t="n">
         <v>1</v>
       </c>
@@ -20281,8 +20067,14 @@
         <v>0</v>
       </c>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
-      <c r="L516" t="inlineStr"/>
+      <c r="K516" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M516" t="n">
         <v>1</v>
       </c>
@@ -20316,8 +20108,14 @@
         <v>0</v>
       </c>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
-      <c r="L517" t="inlineStr"/>
+      <c r="K517" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M517" t="n">
         <v>1</v>
       </c>
@@ -20351,8 +20149,14 @@
         <v>0</v>
       </c>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
-      <c r="L518" t="inlineStr"/>
+      <c r="K518" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M518" t="n">
         <v>1</v>
       </c>
@@ -20386,8 +20190,14 @@
         <v>0</v>
       </c>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
-      <c r="L519" t="inlineStr"/>
+      <c r="K519" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M519" t="n">
         <v>1</v>
       </c>
@@ -20421,8 +20231,14 @@
         <v>0</v>
       </c>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
-      <c r="L520" t="inlineStr"/>
+      <c r="K520" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M520" t="n">
         <v>1</v>
       </c>
@@ -20456,8 +20272,14 @@
         <v>0</v>
       </c>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
-      <c r="L521" t="inlineStr"/>
+      <c r="K521" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M521" t="n">
         <v>1</v>
       </c>
@@ -20491,8 +20313,14 @@
         <v>0</v>
       </c>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
-      <c r="L522" t="inlineStr"/>
+      <c r="K522" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M522" t="n">
         <v>1</v>
       </c>
@@ -20526,8 +20354,14 @@
         <v>0</v>
       </c>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
-      <c r="L523" t="inlineStr"/>
+      <c r="K523" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M523" t="n">
         <v>1</v>
       </c>
@@ -20561,8 +20395,14 @@
         <v>0</v>
       </c>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
-      <c r="L524" t="inlineStr"/>
+      <c r="K524" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M524" t="n">
         <v>1</v>
       </c>
@@ -20596,8 +20436,14 @@
         <v>0</v>
       </c>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
-      <c r="L525" t="inlineStr"/>
+      <c r="K525" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M525" t="n">
         <v>1</v>
       </c>
@@ -20631,8 +20477,14 @@
         <v>0</v>
       </c>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
-      <c r="L526" t="inlineStr"/>
+      <c r="K526" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M526" t="n">
         <v>1</v>
       </c>
@@ -20666,8 +20518,14 @@
         <v>0</v>
       </c>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
-      <c r="L527" t="inlineStr"/>
+      <c r="K527" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M527" t="n">
         <v>1</v>
       </c>
@@ -20701,8 +20559,14 @@
         <v>0</v>
       </c>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
-      <c r="L528" t="inlineStr"/>
+      <c r="K528" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M528" t="n">
         <v>1</v>
       </c>
@@ -20736,8 +20600,14 @@
         <v>0</v>
       </c>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
-      <c r="L529" t="inlineStr"/>
+      <c r="K529" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M529" t="n">
         <v>1</v>
       </c>
@@ -20771,8 +20641,14 @@
         <v>0</v>
       </c>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
-      <c r="L530" t="inlineStr"/>
+      <c r="K530" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M530" t="n">
         <v>1</v>
       </c>
@@ -20806,8 +20682,14 @@
         <v>0</v>
       </c>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
-      <c r="L531" t="inlineStr"/>
+      <c r="K531" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M531" t="n">
         <v>1</v>
       </c>
@@ -20841,8 +20723,14 @@
         <v>0</v>
       </c>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
-      <c r="L532" t="inlineStr"/>
+      <c r="K532" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M532" t="n">
         <v>1</v>
       </c>
@@ -20876,8 +20764,14 @@
         <v>0</v>
       </c>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
-      <c r="L533" t="inlineStr"/>
+      <c r="K533" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M533" t="n">
         <v>1</v>
       </c>
@@ -20911,8 +20805,14 @@
         <v>0</v>
       </c>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
-      <c r="L534" t="inlineStr"/>
+      <c r="K534" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M534" t="n">
         <v>1</v>
       </c>
@@ -20946,8 +20846,14 @@
         <v>0</v>
       </c>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
-      <c r="L535" t="inlineStr"/>
+      <c r="K535" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M535" t="n">
         <v>1</v>
       </c>
@@ -20981,8 +20887,14 @@
         <v>0</v>
       </c>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
-      <c r="L536" t="inlineStr"/>
+      <c r="K536" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M536" t="n">
         <v>1</v>
       </c>
@@ -21016,8 +20928,14 @@
         <v>0</v>
       </c>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
-      <c r="L537" t="inlineStr"/>
+      <c r="K537" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M537" t="n">
         <v>1</v>
       </c>
@@ -21051,8 +20969,14 @@
         <v>0</v>
       </c>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
-      <c r="L538" t="inlineStr"/>
+      <c r="K538" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M538" t="n">
         <v>1</v>
       </c>
@@ -21086,8 +21010,14 @@
         <v>0</v>
       </c>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
-      <c r="L539" t="inlineStr"/>
+      <c r="K539" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M539" t="n">
         <v>1</v>
       </c>
@@ -21121,8 +21051,14 @@
         <v>0</v>
       </c>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
-      <c r="L540" t="inlineStr"/>
+      <c r="K540" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M540" t="n">
         <v>1</v>
       </c>
@@ -21156,8 +21092,14 @@
         <v>0</v>
       </c>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
-      <c r="L541" t="inlineStr"/>
+      <c r="K541" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M541" t="n">
         <v>1</v>
       </c>
@@ -21191,8 +21133,14 @@
         <v>0</v>
       </c>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
-      <c r="L542" t="inlineStr"/>
+      <c r="K542" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M542" t="n">
         <v>1</v>
       </c>
@@ -21226,8 +21174,14 @@
         <v>0</v>
       </c>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
-      <c r="L543" t="inlineStr"/>
+      <c r="K543" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M543" t="n">
         <v>1</v>
       </c>
@@ -21261,8 +21215,14 @@
         <v>0</v>
       </c>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
-      <c r="L544" t="inlineStr"/>
+      <c r="K544" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M544" t="n">
         <v>1</v>
       </c>
@@ -21296,8 +21256,14 @@
         <v>0</v>
       </c>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
-      <c r="L545" t="inlineStr"/>
+      <c r="K545" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M545" t="n">
         <v>1</v>
       </c>
@@ -21331,8 +21297,14 @@
         <v>0</v>
       </c>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
-      <c r="L546" t="inlineStr"/>
+      <c r="K546" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M546" t="n">
         <v>1</v>
       </c>
@@ -21366,8 +21338,14 @@
         <v>0</v>
       </c>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
-      <c r="L547" t="inlineStr"/>
+      <c r="K547" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M547" t="n">
         <v>1</v>
       </c>
@@ -21401,8 +21379,14 @@
         <v>0</v>
       </c>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
-      <c r="L548" t="inlineStr"/>
+      <c r="K548" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M548" t="n">
         <v>1</v>
       </c>
@@ -21436,8 +21420,14 @@
         <v>0</v>
       </c>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
-      <c r="L549" t="inlineStr"/>
+      <c r="K549" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M549" t="n">
         <v>1</v>
       </c>
@@ -21471,8 +21461,14 @@
         <v>0</v>
       </c>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
-      <c r="L550" t="inlineStr"/>
+      <c r="K550" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M550" t="n">
         <v>1</v>
       </c>
@@ -21506,8 +21502,14 @@
         <v>0</v>
       </c>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
-      <c r="L551" t="inlineStr"/>
+      <c r="K551" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M551" t="n">
         <v>1</v>
       </c>
@@ -21541,8 +21543,14 @@
         <v>0</v>
       </c>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
-      <c r="L552" t="inlineStr"/>
+      <c r="K552" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M552" t="n">
         <v>1</v>
       </c>
@@ -21576,8 +21584,14 @@
         <v>0</v>
       </c>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
-      <c r="L553" t="inlineStr"/>
+      <c r="K553" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M553" t="n">
         <v>1</v>
       </c>
@@ -21611,8 +21625,14 @@
         <v>0</v>
       </c>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
-      <c r="L554" t="inlineStr"/>
+      <c r="K554" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M554" t="n">
         <v>1</v>
       </c>
@@ -21646,8 +21666,14 @@
         <v>0</v>
       </c>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
-      <c r="L555" t="inlineStr"/>
+      <c r="K555" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M555" t="n">
         <v>1</v>
       </c>
@@ -21681,8 +21707,14 @@
         <v>0</v>
       </c>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
-      <c r="L556" t="inlineStr"/>
+      <c r="K556" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M556" t="n">
         <v>1</v>
       </c>
@@ -21716,8 +21748,14 @@
         <v>0</v>
       </c>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
-      <c r="L557" t="inlineStr"/>
+      <c r="K557" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M557" t="n">
         <v>1</v>
       </c>
@@ -21751,8 +21789,14 @@
         <v>0</v>
       </c>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
-      <c r="L558" t="inlineStr"/>
+      <c r="K558" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M558" t="n">
         <v>1</v>
       </c>
@@ -21786,8 +21830,14 @@
         <v>0</v>
       </c>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
-      <c r="L559" t="inlineStr"/>
+      <c r="K559" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M559" t="n">
         <v>1</v>
       </c>
@@ -21821,8 +21871,14 @@
         <v>0</v>
       </c>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
-      <c r="L560" t="inlineStr"/>
+      <c r="K560" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M560" t="n">
         <v>1</v>
       </c>
@@ -21856,8 +21912,14 @@
         <v>0</v>
       </c>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
-      <c r="L561" t="inlineStr"/>
+      <c r="K561" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M561" t="n">
         <v>1</v>
       </c>
@@ -21891,8 +21953,14 @@
         <v>0</v>
       </c>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
-      <c r="L562" t="inlineStr"/>
+      <c r="K562" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M562" t="n">
         <v>1</v>
       </c>
@@ -21926,8 +21994,14 @@
         <v>0</v>
       </c>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
-      <c r="L563" t="inlineStr"/>
+      <c r="K563" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M563" t="n">
         <v>1</v>
       </c>
@@ -21961,8 +22035,14 @@
         <v>0</v>
       </c>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
-      <c r="L564" t="inlineStr"/>
+      <c r="K564" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M564" t="n">
         <v>1</v>
       </c>
@@ -21996,8 +22076,14 @@
         <v>0</v>
       </c>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
-      <c r="L565" t="inlineStr"/>
+      <c r="K565" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M565" t="n">
         <v>1</v>
       </c>
@@ -22031,8 +22117,14 @@
         <v>0</v>
       </c>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
-      <c r="L566" t="inlineStr"/>
+      <c r="K566" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M566" t="n">
         <v>1</v>
       </c>
@@ -22066,8 +22158,14 @@
         <v>0</v>
       </c>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
-      <c r="L567" t="inlineStr"/>
+      <c r="K567" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M567" t="n">
         <v>1</v>
       </c>
@@ -22101,8 +22199,14 @@
         <v>0</v>
       </c>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
-      <c r="L568" t="inlineStr"/>
+      <c r="K568" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M568" t="n">
         <v>1</v>
       </c>
@@ -22136,8 +22240,14 @@
         <v>0</v>
       </c>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
-      <c r="L569" t="inlineStr"/>
+      <c r="K569" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M569" t="n">
         <v>1</v>
       </c>
@@ -22171,8 +22281,14 @@
         <v>0</v>
       </c>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
-      <c r="L570" t="inlineStr"/>
+      <c r="K570" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M570" t="n">
         <v>1</v>
       </c>
@@ -22206,8 +22322,14 @@
         <v>0</v>
       </c>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
-      <c r="L571" t="inlineStr"/>
+      <c r="K571" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M571" t="n">
         <v>1</v>
       </c>
@@ -22241,8 +22363,14 @@
         <v>0</v>
       </c>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
-      <c r="L572" t="inlineStr"/>
+      <c r="K572" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M572" t="n">
         <v>1</v>
       </c>
@@ -22276,8 +22404,14 @@
         <v>0</v>
       </c>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
-      <c r="L573" t="inlineStr"/>
+      <c r="K573" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M573" t="n">
         <v>1</v>
       </c>
@@ -22311,8 +22445,14 @@
         <v>0</v>
       </c>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
-      <c r="L574" t="inlineStr"/>
+      <c r="K574" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M574" t="n">
         <v>1</v>
       </c>
@@ -22346,8 +22486,14 @@
         <v>0</v>
       </c>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
-      <c r="L575" t="inlineStr"/>
+      <c r="K575" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M575" t="n">
         <v>1</v>
       </c>
@@ -22381,8 +22527,14 @@
         <v>0</v>
       </c>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
-      <c r="L576" t="inlineStr"/>
+      <c r="K576" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M576" t="n">
         <v>1</v>
       </c>
@@ -22416,8 +22568,14 @@
         <v>0</v>
       </c>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
-      <c r="L577" t="inlineStr"/>
+      <c r="K577" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M577" t="n">
         <v>1</v>
       </c>
@@ -22451,8 +22609,14 @@
         <v>0</v>
       </c>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
-      <c r="L578" t="inlineStr"/>
+      <c r="K578" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M578" t="n">
         <v>1</v>
       </c>
@@ -22486,8 +22650,14 @@
         <v>0</v>
       </c>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
-      <c r="L579" t="inlineStr"/>
+      <c r="K579" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M579" t="n">
         <v>1</v>
       </c>
@@ -22521,8 +22691,14 @@
         <v>0</v>
       </c>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
-      <c r="L580" t="inlineStr"/>
+      <c r="K580" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M580" t="n">
         <v>1</v>
       </c>
@@ -22556,8 +22732,14 @@
         <v>0</v>
       </c>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
-      <c r="L581" t="inlineStr"/>
+      <c r="K581" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M581" t="n">
         <v>1</v>
       </c>
@@ -22591,8 +22773,14 @@
         <v>0</v>
       </c>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
-      <c r="L582" t="inlineStr"/>
+      <c r="K582" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M582" t="n">
         <v>1</v>
       </c>
@@ -22626,8 +22814,14 @@
         <v>0</v>
       </c>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
-      <c r="L583" t="inlineStr"/>
+      <c r="K583" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M583" t="n">
         <v>1</v>
       </c>
@@ -22661,8 +22855,14 @@
         <v>0</v>
       </c>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
-      <c r="L584" t="inlineStr"/>
+      <c r="K584" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M584" t="n">
         <v>1</v>
       </c>
@@ -22696,8 +22896,14 @@
         <v>0</v>
       </c>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
-      <c r="L585" t="inlineStr"/>
+      <c r="K585" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M585" t="n">
         <v>1</v>
       </c>
@@ -22731,8 +22937,14 @@
         <v>0</v>
       </c>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
-      <c r="L586" t="inlineStr"/>
+      <c r="K586" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M586" t="n">
         <v>1</v>
       </c>
@@ -22766,8 +22978,14 @@
         <v>0</v>
       </c>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
-      <c r="L587" t="inlineStr"/>
+      <c r="K587" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M587" t="n">
         <v>1</v>
       </c>
@@ -22801,8 +23019,14 @@
         <v>0</v>
       </c>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
-      <c r="L588" t="inlineStr"/>
+      <c r="K588" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M588" t="n">
         <v>1</v>
       </c>
@@ -22836,8 +23060,14 @@
         <v>0</v>
       </c>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
-      <c r="L589" t="inlineStr"/>
+      <c r="K589" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M589" t="n">
         <v>1</v>
       </c>
@@ -22871,8 +23101,14 @@
         <v>0</v>
       </c>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
-      <c r="L590" t="inlineStr"/>
+      <c r="K590" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M590" t="n">
         <v>1</v>
       </c>
@@ -22906,8 +23142,14 @@
         <v>0</v>
       </c>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
-      <c r="L591" t="inlineStr"/>
+      <c r="K591" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M591" t="n">
         <v>1</v>
       </c>
@@ -22941,8 +23183,14 @@
         <v>0</v>
       </c>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
-      <c r="L592" t="inlineStr"/>
+      <c r="K592" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M592" t="n">
         <v>1</v>
       </c>
@@ -22976,8 +23224,14 @@
         <v>0</v>
       </c>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
-      <c r="L593" t="inlineStr"/>
+      <c r="K593" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M593" t="n">
         <v>1</v>
       </c>
@@ -23011,8 +23265,14 @@
         <v>0</v>
       </c>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
-      <c r="L594" t="inlineStr"/>
+      <c r="K594" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M594" t="n">
         <v>1</v>
       </c>
@@ -23046,8 +23306,14 @@
         <v>0</v>
       </c>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
-      <c r="L595" t="inlineStr"/>
+      <c r="K595" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M595" t="n">
         <v>1</v>
       </c>
@@ -23081,8 +23347,14 @@
         <v>0</v>
       </c>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
-      <c r="L596" t="inlineStr"/>
+      <c r="K596" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M596" t="n">
         <v>1</v>
       </c>
@@ -23116,8 +23388,14 @@
         <v>0</v>
       </c>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
-      <c r="L597" t="inlineStr"/>
+      <c r="K597" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M597" t="n">
         <v>1</v>
       </c>
@@ -23151,8 +23429,14 @@
         <v>0</v>
       </c>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
-      <c r="L598" t="inlineStr"/>
+      <c r="K598" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M598" t="n">
         <v>1</v>
       </c>
@@ -23186,8 +23470,14 @@
         <v>0</v>
       </c>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
-      <c r="L599" t="inlineStr"/>
+      <c r="K599" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M599" t="n">
         <v>1</v>
       </c>
@@ -23221,8 +23511,14 @@
         <v>0</v>
       </c>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
-      <c r="L600" t="inlineStr"/>
+      <c r="K600" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M600" t="n">
         <v>1</v>
       </c>
@@ -23256,8 +23552,14 @@
         <v>0</v>
       </c>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
-      <c r="L601" t="inlineStr"/>
+      <c r="K601" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M601" t="n">
         <v>1</v>
       </c>
@@ -23291,8 +23593,14 @@
         <v>0</v>
       </c>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
-      <c r="L602" t="inlineStr"/>
+      <c r="K602" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M602" t="n">
         <v>1</v>
       </c>
@@ -23326,8 +23634,14 @@
         <v>0</v>
       </c>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
-      <c r="L603" t="inlineStr"/>
+      <c r="K603" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M603" t="n">
         <v>1</v>
       </c>
@@ -23361,8 +23675,14 @@
         <v>0</v>
       </c>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
-      <c r="L604" t="inlineStr"/>
+      <c r="K604" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M604" t="n">
         <v>1</v>
       </c>
@@ -23396,8 +23716,14 @@
         <v>0</v>
       </c>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
-      <c r="L605" t="inlineStr"/>
+      <c r="K605" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M605" t="n">
         <v>1</v>
       </c>
@@ -23431,8 +23757,14 @@
         <v>0</v>
       </c>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
-      <c r="L606" t="inlineStr"/>
+      <c r="K606" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M606" t="n">
         <v>1</v>
       </c>
@@ -23466,8 +23798,14 @@
         <v>0</v>
       </c>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
-      <c r="L607" t="inlineStr"/>
+      <c r="K607" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M607" t="n">
         <v>1</v>
       </c>
@@ -23501,8 +23839,14 @@
         <v>0</v>
       </c>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
-      <c r="L608" t="inlineStr"/>
+      <c r="K608" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M608" t="n">
         <v>1</v>
       </c>
@@ -23536,8 +23880,14 @@
         <v>0</v>
       </c>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
-      <c r="L609" t="inlineStr"/>
+      <c r="K609" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M609" t="n">
         <v>1</v>
       </c>
@@ -23571,8 +23921,14 @@
         <v>0</v>
       </c>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
-      <c r="L610" t="inlineStr"/>
+      <c r="K610" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M610" t="n">
         <v>1</v>
       </c>
@@ -23606,8 +23962,14 @@
         <v>0</v>
       </c>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
-      <c r="L611" t="inlineStr"/>
+      <c r="K611" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M611" t="n">
         <v>1</v>
       </c>
@@ -23641,8 +24003,14 @@
         <v>0</v>
       </c>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
-      <c r="L612" t="inlineStr"/>
+      <c r="K612" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M612" t="n">
         <v>1</v>
       </c>
@@ -23676,8 +24044,14 @@
         <v>0</v>
       </c>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
-      <c r="L613" t="inlineStr"/>
+      <c r="K613" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M613" t="n">
         <v>1</v>
       </c>
@@ -23711,8 +24085,14 @@
         <v>0</v>
       </c>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
-      <c r="L614" t="inlineStr"/>
+      <c r="K614" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M614" t="n">
         <v>1</v>
       </c>
@@ -23746,8 +24126,14 @@
         <v>0</v>
       </c>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
-      <c r="L615" t="inlineStr"/>
+      <c r="K615" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M615" t="n">
         <v>1</v>
       </c>
@@ -23781,8 +24167,14 @@
         <v>0</v>
       </c>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
-      <c r="L616" t="inlineStr"/>
+      <c r="K616" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M616" t="n">
         <v>1</v>
       </c>
@@ -23816,8 +24208,14 @@
         <v>0</v>
       </c>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
-      <c r="L617" t="inlineStr"/>
+      <c r="K617" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M617" t="n">
         <v>1</v>
       </c>
@@ -23851,8 +24249,14 @@
         <v>0</v>
       </c>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
-      <c r="L618" t="inlineStr"/>
+      <c r="K618" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M618" t="n">
         <v>1</v>
       </c>
@@ -23886,8 +24290,14 @@
         <v>0</v>
       </c>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
-      <c r="L619" t="inlineStr"/>
+      <c r="K619" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M619" t="n">
         <v>1</v>
       </c>
@@ -23921,8 +24331,14 @@
         <v>0</v>
       </c>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
-      <c r="L620" t="inlineStr"/>
+      <c r="K620" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M620" t="n">
         <v>1</v>
       </c>
@@ -23956,8 +24372,14 @@
         <v>0</v>
       </c>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
-      <c r="L621" t="inlineStr"/>
+      <c r="K621" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M621" t="n">
         <v>1</v>
       </c>
@@ -23991,8 +24413,14 @@
         <v>0</v>
       </c>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
-      <c r="L622" t="inlineStr"/>
+      <c r="K622" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M622" t="n">
         <v>1</v>
       </c>
@@ -24026,8 +24454,14 @@
         <v>0</v>
       </c>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
-      <c r="L623" t="inlineStr"/>
+      <c r="K623" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M623" t="n">
         <v>1</v>
       </c>
@@ -24061,8 +24495,14 @@
         <v>0</v>
       </c>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
-      <c r="L624" t="inlineStr"/>
+      <c r="K624" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M624" t="n">
         <v>1</v>
       </c>
@@ -24096,8 +24536,14 @@
         <v>0</v>
       </c>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
-      <c r="L625" t="inlineStr"/>
+      <c r="K625" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M625" t="n">
         <v>1</v>
       </c>
@@ -24131,8 +24577,14 @@
         <v>0</v>
       </c>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
-      <c r="L626" t="inlineStr"/>
+      <c r="K626" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M626" t="n">
         <v>1</v>
       </c>
@@ -24166,8 +24618,14 @@
         <v>0</v>
       </c>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
-      <c r="L627" t="inlineStr"/>
+      <c r="K627" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M627" t="n">
         <v>1</v>
       </c>
@@ -24201,8 +24659,14 @@
         <v>0</v>
       </c>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
-      <c r="L628" t="inlineStr"/>
+      <c r="K628" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M628" t="n">
         <v>1</v>
       </c>
@@ -24236,8 +24700,14 @@
         <v>0</v>
       </c>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
-      <c r="L629" t="inlineStr"/>
+      <c r="K629" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M629" t="n">
         <v>1</v>
       </c>
@@ -24271,8 +24741,14 @@
         <v>0</v>
       </c>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
-      <c r="L630" t="inlineStr"/>
+      <c r="K630" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M630" t="n">
         <v>1</v>
       </c>
@@ -24306,8 +24782,14 @@
         <v>0</v>
       </c>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
-      <c r="L631" t="inlineStr"/>
+      <c r="K631" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M631" t="n">
         <v>1</v>
       </c>
@@ -24341,8 +24823,14 @@
         <v>0</v>
       </c>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
-      <c r="L632" t="inlineStr"/>
+      <c r="K632" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M632" t="n">
         <v>1</v>
       </c>
@@ -24376,8 +24864,14 @@
         <v>0</v>
       </c>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
-      <c r="L633" t="inlineStr"/>
+      <c r="K633" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M633" t="n">
         <v>1</v>
       </c>
@@ -24411,8 +24905,14 @@
         <v>0</v>
       </c>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
-      <c r="L634" t="inlineStr"/>
+      <c r="K634" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M634" t="n">
         <v>1</v>
       </c>
@@ -24446,8 +24946,14 @@
         <v>0</v>
       </c>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
-      <c r="L635" t="inlineStr"/>
+      <c r="K635" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M635" t="n">
         <v>1</v>
       </c>
@@ -24481,8 +24987,14 @@
         <v>0</v>
       </c>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
-      <c r="L636" t="inlineStr"/>
+      <c r="K636" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M636" t="n">
         <v>1</v>
       </c>
@@ -24516,8 +25028,14 @@
         <v>0</v>
       </c>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
-      <c r="L637" t="inlineStr"/>
+      <c r="K637" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M637" t="n">
         <v>1</v>
       </c>
@@ -24551,8 +25069,14 @@
         <v>0</v>
       </c>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
-      <c r="L638" t="inlineStr"/>
+      <c r="K638" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M638" t="n">
         <v>1</v>
       </c>
@@ -24586,8 +25110,14 @@
         <v>0</v>
       </c>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
-      <c r="L639" t="inlineStr"/>
+      <c r="K639" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M639" t="n">
         <v>1</v>
       </c>
@@ -24621,8 +25151,14 @@
         <v>0</v>
       </c>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
-      <c r="L640" t="inlineStr"/>
+      <c r="K640" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M640" t="n">
         <v>1</v>
       </c>
@@ -24656,8 +25192,14 @@
         <v>0</v>
       </c>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
-      <c r="L641" t="inlineStr"/>
+      <c r="K641" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M641" t="n">
         <v>1</v>
       </c>
@@ -24691,8 +25233,14 @@
         <v>0</v>
       </c>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
-      <c r="L642" t="inlineStr"/>
+      <c r="K642" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M642" t="n">
         <v>1</v>
       </c>
@@ -24726,8 +25274,14 @@
         <v>0</v>
       </c>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
-      <c r="L643" t="inlineStr"/>
+      <c r="K643" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M643" t="n">
         <v>1</v>
       </c>
@@ -24761,8 +25315,14 @@
         <v>0</v>
       </c>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
-      <c r="L644" t="inlineStr"/>
+      <c r="K644" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M644" t="n">
         <v>1</v>
       </c>
@@ -24796,8 +25356,14 @@
         <v>0</v>
       </c>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
-      <c r="L645" t="inlineStr"/>
+      <c r="K645" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M645" t="n">
         <v>1</v>
       </c>
@@ -24831,8 +25397,14 @@
         <v>0</v>
       </c>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
-      <c r="L646" t="inlineStr"/>
+      <c r="K646" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M646" t="n">
         <v>1</v>
       </c>
@@ -24866,8 +25438,14 @@
         <v>0</v>
       </c>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
-      <c r="L647" t="inlineStr"/>
+      <c r="K647" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M647" t="n">
         <v>1</v>
       </c>
@@ -24901,8 +25479,14 @@
         <v>0</v>
       </c>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
-      <c r="L648" t="inlineStr"/>
+      <c r="K648" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M648" t="n">
         <v>1</v>
       </c>
@@ -24936,8 +25520,14 @@
         <v>0</v>
       </c>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
-      <c r="L649" t="inlineStr"/>
+      <c r="K649" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M649" t="n">
         <v>1</v>
       </c>
@@ -24971,8 +25561,14 @@
         <v>0</v>
       </c>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
-      <c r="L650" t="inlineStr"/>
+      <c r="K650" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M650" t="n">
         <v>1</v>
       </c>
@@ -25006,8 +25602,14 @@
         <v>0</v>
       </c>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
-      <c r="L651" t="inlineStr"/>
+      <c r="K651" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M651" t="n">
         <v>1</v>
       </c>
@@ -25041,8 +25643,14 @@
         <v>0</v>
       </c>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
-      <c r="L652" t="inlineStr"/>
+      <c r="K652" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M652" t="n">
         <v>1</v>
       </c>
@@ -25076,8 +25684,14 @@
         <v>0</v>
       </c>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
-      <c r="L653" t="inlineStr"/>
+      <c r="K653" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M653" t="n">
         <v>1</v>
       </c>
@@ -25111,8 +25725,14 @@
         <v>0</v>
       </c>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
-      <c r="L654" t="inlineStr"/>
+      <c r="K654" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M654" t="n">
         <v>1</v>
       </c>
@@ -25146,8 +25766,14 @@
         <v>0</v>
       </c>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
-      <c r="L655" t="inlineStr"/>
+      <c r="K655" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M655" t="n">
         <v>1</v>
       </c>
@@ -25181,8 +25807,14 @@
         <v>0</v>
       </c>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
-      <c r="L656" t="inlineStr"/>
+      <c r="K656" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M656" t="n">
         <v>1</v>
       </c>
@@ -25216,8 +25848,14 @@
         <v>0</v>
       </c>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
-      <c r="L657" t="inlineStr"/>
+      <c r="K657" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M657" t="n">
         <v>1</v>
       </c>
@@ -25251,8 +25889,14 @@
         <v>0</v>
       </c>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
-      <c r="L658" t="inlineStr"/>
+      <c r="K658" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M658" t="n">
         <v>1</v>
       </c>
@@ -25286,8 +25930,14 @@
         <v>0</v>
       </c>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
-      <c r="L659" t="inlineStr"/>
+      <c r="K659" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M659" t="n">
         <v>1</v>
       </c>
@@ -25321,8 +25971,14 @@
         <v>0</v>
       </c>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
-      <c r="L660" t="inlineStr"/>
+      <c r="K660" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M660" t="n">
         <v>1</v>
       </c>
@@ -25356,8 +26012,14 @@
         <v>0</v>
       </c>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
-      <c r="L661" t="inlineStr"/>
+      <c r="K661" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M661" t="n">
         <v>1</v>
       </c>
@@ -25391,8 +26053,14 @@
         <v>0</v>
       </c>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
-      <c r="L662" t="inlineStr"/>
+      <c r="K662" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M662" t="n">
         <v>1</v>
       </c>
@@ -25426,8 +26094,14 @@
         <v>0</v>
       </c>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
-      <c r="L663" t="inlineStr"/>
+      <c r="K663" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M663" t="n">
         <v>1</v>
       </c>
@@ -25461,8 +26135,14 @@
         <v>0</v>
       </c>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
-      <c r="L664" t="inlineStr"/>
+      <c r="K664" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M664" t="n">
         <v>1</v>
       </c>
@@ -25496,8 +26176,14 @@
         <v>0</v>
       </c>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
-      <c r="L665" t="inlineStr"/>
+      <c r="K665" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M665" t="n">
         <v>1</v>
       </c>
@@ -25531,8 +26217,14 @@
         <v>0</v>
       </c>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
-      <c r="L666" t="inlineStr"/>
+      <c r="K666" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M666" t="n">
         <v>1</v>
       </c>
@@ -25566,8 +26258,14 @@
         <v>0</v>
       </c>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
-      <c r="L667" t="inlineStr"/>
+      <c r="K667" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M667" t="n">
         <v>1</v>
       </c>
@@ -25601,8 +26299,14 @@
         <v>0</v>
       </c>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
-      <c r="L668" t="inlineStr"/>
+      <c r="K668" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M668" t="n">
         <v>1</v>
       </c>
@@ -25636,8 +26340,14 @@
         <v>0</v>
       </c>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
-      <c r="L669" t="inlineStr"/>
+      <c r="K669" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M669" t="n">
         <v>1</v>
       </c>
@@ -25671,8 +26381,14 @@
         <v>0</v>
       </c>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
-      <c r="L670" t="inlineStr"/>
+      <c r="K670" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M670" t="n">
         <v>1</v>
       </c>
@@ -25706,8 +26422,14 @@
         <v>0</v>
       </c>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
-      <c r="L671" t="inlineStr"/>
+      <c r="K671" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M671" t="n">
         <v>1</v>
       </c>
@@ -25741,8 +26463,14 @@
         <v>0</v>
       </c>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
-      <c r="L672" t="inlineStr"/>
+      <c r="K672" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M672" t="n">
         <v>1</v>
       </c>
@@ -25776,8 +26504,14 @@
         <v>0</v>
       </c>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
-      <c r="L673" t="inlineStr"/>
+      <c r="K673" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M673" t="n">
         <v>1</v>
       </c>
@@ -25811,8 +26545,14 @@
         <v>0</v>
       </c>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
-      <c r="L674" t="inlineStr"/>
+      <c r="K674" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M674" t="n">
         <v>1</v>
       </c>
@@ -25846,8 +26586,14 @@
         <v>0</v>
       </c>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
-      <c r="L675" t="inlineStr"/>
+      <c r="K675" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M675" t="n">
         <v>1</v>
       </c>
@@ -25881,8 +26627,14 @@
         <v>0</v>
       </c>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
-      <c r="L676" t="inlineStr"/>
+      <c r="K676" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M676" t="n">
         <v>1</v>
       </c>
@@ -25916,8 +26668,14 @@
         <v>0</v>
       </c>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
-      <c r="L677" t="inlineStr"/>
+      <c r="K677" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M677" t="n">
         <v>1</v>
       </c>
@@ -25951,8 +26709,14 @@
         <v>0</v>
       </c>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
-      <c r="L678" t="inlineStr"/>
+      <c r="K678" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M678" t="n">
         <v>1</v>
       </c>
@@ -25986,8 +26750,14 @@
         <v>0</v>
       </c>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
-      <c r="L679" t="inlineStr"/>
+      <c r="K679" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M679" t="n">
         <v>1</v>
       </c>
@@ -26021,8 +26791,14 @@
         <v>0</v>
       </c>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
-      <c r="L680" t="inlineStr"/>
+      <c r="K680" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M680" t="n">
         <v>1</v>
       </c>
@@ -26056,8 +26832,14 @@
         <v>0</v>
       </c>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
-      <c r="L681" t="inlineStr"/>
+      <c r="K681" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M681" t="n">
         <v>1</v>
       </c>
@@ -26091,8 +26873,14 @@
         <v>0</v>
       </c>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
-      <c r="L682" t="inlineStr"/>
+      <c r="K682" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M682" t="n">
         <v>1</v>
       </c>
@@ -26126,8 +26914,14 @@
         <v>0</v>
       </c>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
-      <c r="L683" t="inlineStr"/>
+      <c r="K683" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M683" t="n">
         <v>1</v>
       </c>
@@ -26161,8 +26955,14 @@
         <v>0</v>
       </c>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
-      <c r="L684" t="inlineStr"/>
+      <c r="K684" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M684" t="n">
         <v>1</v>
       </c>
@@ -26196,8 +26996,14 @@
         <v>0</v>
       </c>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
-      <c r="L685" t="inlineStr"/>
+      <c r="K685" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M685" t="n">
         <v>1</v>
       </c>
@@ -26231,8 +27037,14 @@
         <v>0</v>
       </c>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
-      <c r="L686" t="inlineStr"/>
+      <c r="K686" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M686" t="n">
         <v>1</v>
       </c>
@@ -26266,8 +27078,14 @@
         <v>0</v>
       </c>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
-      <c r="L687" t="inlineStr"/>
+      <c r="K687" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M687" t="n">
         <v>1</v>
       </c>
@@ -26301,8 +27119,14 @@
         <v>0</v>
       </c>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
-      <c r="L688" t="inlineStr"/>
+      <c r="K688" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M688" t="n">
         <v>1</v>
       </c>
@@ -26336,8 +27160,14 @@
         <v>0</v>
       </c>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
-      <c r="L689" t="inlineStr"/>
+      <c r="K689" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M689" t="n">
         <v>1</v>
       </c>
@@ -26371,8 +27201,14 @@
         <v>0</v>
       </c>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
-      <c r="L690" t="inlineStr"/>
+      <c r="K690" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M690" t="n">
         <v>1</v>
       </c>
@@ -26406,8 +27242,14 @@
         <v>0</v>
       </c>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
-      <c r="L691" t="inlineStr"/>
+      <c r="K691" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M691" t="n">
         <v>1</v>
       </c>
@@ -26441,8 +27283,14 @@
         <v>0</v>
       </c>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
-      <c r="L692" t="inlineStr"/>
+      <c r="K692" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M692" t="n">
         <v>1</v>
       </c>
@@ -26476,8 +27324,14 @@
         <v>0</v>
       </c>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
-      <c r="L693" t="inlineStr"/>
+      <c r="K693" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M693" t="n">
         <v>1</v>
       </c>
@@ -26511,8 +27365,14 @@
         <v>0</v>
       </c>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
-      <c r="L694" t="inlineStr"/>
+      <c r="K694" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M694" t="n">
         <v>1</v>
       </c>
@@ -26546,8 +27406,14 @@
         <v>0</v>
       </c>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
-      <c r="L695" t="inlineStr"/>
+      <c r="K695" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M695" t="n">
         <v>1</v>
       </c>
@@ -26581,8 +27447,14 @@
         <v>0</v>
       </c>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
-      <c r="L696" t="inlineStr"/>
+      <c r="K696" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M696" t="n">
         <v>1</v>
       </c>
@@ -26616,8 +27488,14 @@
         <v>0</v>
       </c>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
-      <c r="L697" t="inlineStr"/>
+      <c r="K697" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M697" t="n">
         <v>1</v>
       </c>
@@ -26651,8 +27529,14 @@
         <v>0</v>
       </c>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
-      <c r="L698" t="inlineStr"/>
+      <c r="K698" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M698" t="n">
         <v>1</v>
       </c>
@@ -26686,8 +27570,14 @@
         <v>0</v>
       </c>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
-      <c r="L699" t="inlineStr"/>
+      <c r="K699" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M699" t="n">
         <v>1</v>
       </c>
@@ -26721,8 +27611,14 @@
         <v>0</v>
       </c>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
-      <c r="L700" t="inlineStr"/>
+      <c r="K700" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M700" t="n">
         <v>1</v>
       </c>
@@ -26756,8 +27652,14 @@
         <v>0</v>
       </c>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
-      <c r="L701" t="inlineStr"/>
+      <c r="K701" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M701" t="n">
         <v>1</v>
       </c>
@@ -26791,8 +27693,14 @@
         <v>0</v>
       </c>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
-      <c r="L702" t="inlineStr"/>
+      <c r="K702" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M702" t="n">
         <v>1</v>
       </c>
@@ -26826,8 +27734,14 @@
         <v>0</v>
       </c>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
-      <c r="L703" t="inlineStr"/>
+      <c r="K703" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M703" t="n">
         <v>1</v>
       </c>
@@ -26861,8 +27775,14 @@
         <v>0</v>
       </c>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
-      <c r="L704" t="inlineStr"/>
+      <c r="K704" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M704" t="n">
         <v>1</v>
       </c>
@@ -26896,8 +27816,14 @@
         <v>0</v>
       </c>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
-      <c r="L705" t="inlineStr"/>
+      <c r="K705" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M705" t="n">
         <v>1</v>
       </c>
@@ -26931,8 +27857,14 @@
         <v>0</v>
       </c>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
-      <c r="L706" t="inlineStr"/>
+      <c r="K706" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M706" t="n">
         <v>1</v>
       </c>
@@ -26966,8 +27898,14 @@
         <v>0</v>
       </c>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
-      <c r="L707" t="inlineStr"/>
+      <c r="K707" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M707" t="n">
         <v>1</v>
       </c>
@@ -27001,8 +27939,14 @@
         <v>0</v>
       </c>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
-      <c r="L708" t="inlineStr"/>
+      <c r="K708" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M708" t="n">
         <v>1</v>
       </c>
@@ -27036,8 +27980,14 @@
         <v>0</v>
       </c>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
-      <c r="L709" t="inlineStr"/>
+      <c r="K709" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M709" t="n">
         <v>1</v>
       </c>
@@ -27071,8 +28021,14 @@
         <v>0</v>
       </c>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
-      <c r="L710" t="inlineStr"/>
+      <c r="K710" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M710" t="n">
         <v>1</v>
       </c>
@@ -27106,8 +28062,14 @@
         <v>0</v>
       </c>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
-      <c r="L711" t="inlineStr"/>
+      <c r="K711" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M711" t="n">
         <v>1</v>
       </c>
@@ -27141,8 +28103,14 @@
         <v>0</v>
       </c>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
-      <c r="L712" t="inlineStr"/>
+      <c r="K712" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M712" t="n">
         <v>1</v>
       </c>
@@ -27176,8 +28144,14 @@
         <v>0</v>
       </c>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
-      <c r="L713" t="inlineStr"/>
+      <c r="K713" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M713" t="n">
         <v>1</v>
       </c>
@@ -27211,8 +28185,14 @@
         <v>0</v>
       </c>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
-      <c r="L714" t="inlineStr"/>
+      <c r="K714" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M714" t="n">
         <v>1</v>
       </c>
@@ -27246,8 +28226,14 @@
         <v>0</v>
       </c>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
-      <c r="L715" t="inlineStr"/>
+      <c r="K715" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M715" t="n">
         <v>1</v>
       </c>
@@ -27281,8 +28267,14 @@
         <v>0</v>
       </c>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
-      <c r="L716" t="inlineStr"/>
+      <c r="K716" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M716" t="n">
         <v>1</v>
       </c>
@@ -27316,8 +28308,14 @@
         <v>0</v>
       </c>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
-      <c r="L717" t="inlineStr"/>
+      <c r="K717" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M717" t="n">
         <v>1</v>
       </c>
@@ -27351,8 +28349,14 @@
         <v>0</v>
       </c>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
-      <c r="L718" t="inlineStr"/>
+      <c r="K718" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M718" t="n">
         <v>1</v>
       </c>
@@ -27386,8 +28390,14 @@
         <v>0</v>
       </c>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
-      <c r="L719" t="inlineStr"/>
+      <c r="K719" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M719" t="n">
         <v>1</v>
       </c>
@@ -27421,8 +28431,14 @@
         <v>0</v>
       </c>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
-      <c r="L720" t="inlineStr"/>
+      <c r="K720" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M720" t="n">
         <v>1</v>
       </c>
@@ -27456,8 +28472,14 @@
         <v>0</v>
       </c>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
-      <c r="L721" t="inlineStr"/>
+      <c r="K721" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M721" t="n">
         <v>1</v>
       </c>
@@ -27491,8 +28513,14 @@
         <v>0</v>
       </c>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
-      <c r="L722" t="inlineStr"/>
+      <c r="K722" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M722" t="n">
         <v>1</v>
       </c>
@@ -27526,8 +28554,14 @@
         <v>0</v>
       </c>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
-      <c r="L723" t="inlineStr"/>
+      <c r="K723" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M723" t="n">
         <v>1</v>
       </c>
@@ -27561,8 +28595,14 @@
         <v>0</v>
       </c>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
-      <c r="L724" t="inlineStr"/>
+      <c r="K724" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M724" t="n">
         <v>1</v>
       </c>
@@ -27596,8 +28636,14 @@
         <v>0</v>
       </c>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
-      <c r="L725" t="inlineStr"/>
+      <c r="K725" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M725" t="n">
         <v>1</v>
       </c>
@@ -27631,8 +28677,14 @@
         <v>0</v>
       </c>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
-      <c r="L726" t="inlineStr"/>
+      <c r="K726" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M726" t="n">
         <v>1</v>
       </c>
@@ -27666,8 +28718,14 @@
         <v>0</v>
       </c>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
-      <c r="L727" t="inlineStr"/>
+      <c r="K727" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M727" t="n">
         <v>1</v>
       </c>
@@ -27701,8 +28759,14 @@
         <v>0</v>
       </c>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
-      <c r="L728" t="inlineStr"/>
+      <c r="K728" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M728" t="n">
         <v>1</v>
       </c>
@@ -27736,8 +28800,14 @@
         <v>0</v>
       </c>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
-      <c r="L729" t="inlineStr"/>
+      <c r="K729" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M729" t="n">
         <v>1</v>
       </c>
@@ -27771,8 +28841,14 @@
         <v>0</v>
       </c>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
-      <c r="L730" t="inlineStr"/>
+      <c r="K730" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M730" t="n">
         <v>1</v>
       </c>
@@ -27806,8 +28882,14 @@
         <v>0</v>
       </c>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
-      <c r="L731" t="inlineStr"/>
+      <c r="K731" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M731" t="n">
         <v>1</v>
       </c>
@@ -27841,8 +28923,14 @@
         <v>0</v>
       </c>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
-      <c r="L732" t="inlineStr"/>
+      <c r="K732" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M732" t="n">
         <v>1</v>
       </c>
@@ -27876,8 +28964,14 @@
         <v>0</v>
       </c>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
-      <c r="L733" t="inlineStr"/>
+      <c r="K733" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M733" t="n">
         <v>1</v>
       </c>
@@ -27911,8 +29005,14 @@
         <v>0</v>
       </c>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
-      <c r="L734" t="inlineStr"/>
+      <c r="K734" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M734" t="n">
         <v>1</v>
       </c>
@@ -27946,8 +29046,14 @@
         <v>0</v>
       </c>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
-      <c r="L735" t="inlineStr"/>
+      <c r="K735" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M735" t="n">
         <v>1</v>
       </c>
@@ -27981,8 +29087,14 @@
         <v>0</v>
       </c>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
-      <c r="L736" t="inlineStr"/>
+      <c r="K736" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M736" t="n">
         <v>1</v>
       </c>
@@ -28016,8 +29128,14 @@
         <v>0</v>
       </c>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
-      <c r="L737" t="inlineStr"/>
+      <c r="K737" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M737" t="n">
         <v>1</v>
       </c>
@@ -28051,8 +29169,14 @@
         <v>0</v>
       </c>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
-      <c r="L738" t="inlineStr"/>
+      <c r="K738" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M738" t="n">
         <v>1</v>
       </c>
@@ -28086,8 +29210,14 @@
         <v>0</v>
       </c>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
-      <c r="L739" t="inlineStr"/>
+      <c r="K739" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M739" t="n">
         <v>1</v>
       </c>
@@ -28121,8 +29251,14 @@
         <v>0</v>
       </c>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
-      <c r="L740" t="inlineStr"/>
+      <c r="K740" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M740" t="n">
         <v>1</v>
       </c>
@@ -28156,8 +29292,14 @@
         <v>0</v>
       </c>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
-      <c r="L741" t="inlineStr"/>
+      <c r="K741" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M741" t="n">
         <v>1</v>
       </c>
@@ -28191,8 +29333,14 @@
         <v>0</v>
       </c>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
-      <c r="L742" t="inlineStr"/>
+      <c r="K742" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M742" t="n">
         <v>1</v>
       </c>
@@ -28226,8 +29374,14 @@
         <v>0</v>
       </c>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
-      <c r="L743" t="inlineStr"/>
+      <c r="K743" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M743" t="n">
         <v>1</v>
       </c>
@@ -28261,8 +29415,14 @@
         <v>0</v>
       </c>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
-      <c r="L744" t="inlineStr"/>
+      <c r="K744" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M744" t="n">
         <v>1</v>
       </c>
@@ -28296,8 +29456,14 @@
         <v>0</v>
       </c>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
-      <c r="L745" t="inlineStr"/>
+      <c r="K745" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M745" t="n">
         <v>1</v>
       </c>
@@ -28331,8 +29497,14 @@
         <v>0</v>
       </c>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
-      <c r="L746" t="inlineStr"/>
+      <c r="K746" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M746" t="n">
         <v>1</v>
       </c>
@@ -28366,8 +29538,14 @@
         <v>0</v>
       </c>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
-      <c r="L747" t="inlineStr"/>
+      <c r="K747" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M747" t="n">
         <v>1</v>
       </c>
@@ -28401,8 +29579,14 @@
         <v>0</v>
       </c>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
-      <c r="L748" t="inlineStr"/>
+      <c r="K748" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M748" t="n">
         <v>1</v>
       </c>
@@ -28436,8 +29620,14 @@
         <v>0</v>
       </c>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
-      <c r="L749" t="inlineStr"/>
+      <c r="K749" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M749" t="n">
         <v>1</v>
       </c>
@@ -28471,8 +29661,14 @@
         <v>0</v>
       </c>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
-      <c r="L750" t="inlineStr"/>
+      <c r="K750" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M750" t="n">
         <v>1</v>
       </c>
@@ -28506,8 +29702,14 @@
         <v>0</v>
       </c>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
-      <c r="L751" t="inlineStr"/>
+      <c r="K751" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M751" t="n">
         <v>1</v>
       </c>
@@ -28541,8 +29743,14 @@
         <v>0</v>
       </c>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
-      <c r="L752" t="inlineStr"/>
+      <c r="K752" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M752" t="n">
         <v>1</v>
       </c>
@@ -28576,8 +29784,14 @@
         <v>0</v>
       </c>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
-      <c r="L753" t="inlineStr"/>
+      <c r="K753" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M753" t="n">
         <v>1</v>
       </c>
@@ -28611,8 +29825,14 @@
         <v>0</v>
       </c>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
-      <c r="L754" t="inlineStr"/>
+      <c r="K754" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="L754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M754" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-26 BackTest FZZ.xlsx
+++ b/BackTest/2019-10-26 BackTest FZZ.xlsx
@@ -3751,10 +3751,14 @@
         <v>-195001968.1113355</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="J102" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
@@ -3784,11 +3788,19 @@
         <v>-195002668.2482356</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="J103" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3817,11 +3829,19 @@
         <v>-195002668.2482356</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="J104" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3850,11 +3870,19 @@
         <v>-195129302.7110355</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="J105" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3883,11 +3911,19 @@
         <v>-195129302.7110355</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="J106" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3921,10 +3957,12 @@
       <c r="I107" t="n">
         <v>7.14</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L107" t="n">
@@ -3960,7 +3998,9 @@
       <c r="I108" t="n">
         <v>7.14</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3999,7 +4039,9 @@
       <c r="I109" t="n">
         <v>7.13</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4038,7 +4080,9 @@
       <c r="I110" t="n">
         <v>7.18</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4077,7 +4121,9 @@
       <c r="I111" t="n">
         <v>7.14</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4116,7 +4162,9 @@
       <c r="I112" t="n">
         <v>7.13</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4155,7 +4203,9 @@
       <c r="I113" t="n">
         <v>7.18</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4194,7 +4244,9 @@
       <c r="I114" t="n">
         <v>7.17</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4233,7 +4285,9 @@
       <c r="I115" t="n">
         <v>7.17</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4272,7 +4326,9 @@
       <c r="I116" t="n">
         <v>7.14</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4311,7 +4367,9 @@
       <c r="I117" t="n">
         <v>7.13</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4350,7 +4408,9 @@
       <c r="I118" t="n">
         <v>7.26</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4384,10 +4444,14 @@
         <v>-195336472.7590356</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="J119" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4421,10 +4485,14 @@
         <v>-195582985.9469356</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="J120" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4463,7 +4531,9 @@
       <c r="I121" t="n">
         <v>7.11</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4497,10 +4567,14 @@
         <v>-194903431.2997356</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="J122" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4534,10 +4608,14 @@
         <v>-194903431.2997356</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>7.13</v>
+      </c>
+      <c r="J123" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4576,7 +4654,9 @@
       <c r="I124" t="n">
         <v>7.13</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4610,10 +4690,14 @@
         <v>-194817996.4756356</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="J125" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4647,10 +4731,14 @@
         <v>-194834874.4531356</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="J126" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4684,10 +4772,14 @@
         <v>-195407409.5799356</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J127" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4721,10 +4813,14 @@
         <v>-195317268.9766355</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>7.13</v>
+      </c>
+      <c r="J128" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4763,7 +4859,9 @@
       <c r="I129" t="n">
         <v>7.15</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4797,10 +4895,14 @@
         <v>-195080596.7215577</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="J130" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4834,10 +4936,14 @@
         <v>-195118508.4957577</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="J131" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4871,10 +4977,14 @@
         <v>-196642787.8719577</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="J132" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4913,7 +5023,9 @@
       <c r="I133" t="n">
         <v>7.13</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4947,10 +5059,14 @@
         <v>-196621400.5157355</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J134" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4984,10 +5100,14 @@
         <v>-196449587.8661355</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J135" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5021,10 +5141,14 @@
         <v>-196331789.240211</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="J136" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5058,10 +5182,14 @@
         <v>-196337552.178311</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="J137" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5095,10 +5223,14 @@
         <v>-196337577.178311</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="J138" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5132,10 +5264,14 @@
         <v>-196337577.178311</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="J139" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5169,10 +5305,14 @@
         <v>-196406834.2321109</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="J140" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5206,10 +5346,14 @@
         <v>-196415054.302011</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="J141" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5246,7 +5390,9 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5283,7 +5429,9 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5320,7 +5468,9 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5357,7 +5507,9 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5394,7 +5546,9 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5431,7 +5585,9 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5468,7 +5624,9 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5502,10 +5660,14 @@
         <v>-196435205.019911</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="J149" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5542,7 +5704,9 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5579,7 +5743,9 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5616,7 +5782,9 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5653,7 +5821,9 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5690,7 +5860,9 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5727,7 +5899,9 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5764,7 +5938,9 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5801,7 +5977,9 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5838,7 +6016,9 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5875,7 +6055,9 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5912,7 +6094,9 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5949,7 +6133,9 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5986,7 +6172,9 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6023,7 +6211,9 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6060,7 +6250,9 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6097,7 +6289,9 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6134,7 +6328,9 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6171,7 +6367,9 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6208,7 +6406,9 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6245,7 +6445,9 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6282,7 +6484,9 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6319,7 +6523,9 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6356,7 +6562,9 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6393,7 +6601,9 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6430,7 +6640,9 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6467,7 +6679,9 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6504,7 +6718,9 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6541,7 +6757,9 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6578,7 +6796,9 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6615,7 +6835,9 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6652,7 +6874,9 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6689,7 +6913,9 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6726,7 +6952,9 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6763,7 +6991,9 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6800,7 +7030,9 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6837,7 +7069,9 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6874,7 +7108,9 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6911,7 +7147,9 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6948,7 +7186,9 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6985,7 +7225,9 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7022,7 +7264,9 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7059,7 +7303,9 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7096,7 +7342,9 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7133,7 +7381,9 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7170,7 +7420,9 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7207,7 +7459,9 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7244,7 +7498,9 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7281,7 +7537,9 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7318,7 +7576,9 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7355,7 +7615,9 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7392,7 +7654,9 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7429,7 +7693,9 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7466,7 +7732,9 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7503,7 +7771,9 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7540,7 +7810,9 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7577,7 +7849,9 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7614,7 +7888,9 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7651,7 +7927,9 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7688,7 +7966,9 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7725,7 +8005,9 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7762,7 +8044,9 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7799,7 +8083,9 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7836,7 +8122,9 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7873,7 +8161,9 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7910,7 +8200,9 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7947,7 +8239,9 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7984,7 +8278,9 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8021,7 +8317,9 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8058,7 +8356,9 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8095,7 +8395,9 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8132,7 +8434,9 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8169,7 +8473,9 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8206,7 +8512,9 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8243,7 +8551,9 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8280,7 +8590,9 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8317,7 +8629,9 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8354,7 +8668,9 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8391,7 +8707,9 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8428,7 +8746,9 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8465,7 +8785,9 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8502,7 +8824,9 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8539,7 +8863,9 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8576,7 +8902,9 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8613,7 +8941,9 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8650,7 +8980,9 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8687,7 +9019,9 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8724,7 +9058,9 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8761,7 +9097,9 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8798,7 +9136,9 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8835,7 +9175,9 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8872,7 +9214,9 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8909,7 +9253,9 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8946,7 +9292,9 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8983,7 +9331,9 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9020,7 +9370,9 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9057,7 +9409,9 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9094,7 +9448,9 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9131,7 +9487,9 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9168,7 +9526,9 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9205,7 +9565,9 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9242,7 +9604,9 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9279,7 +9643,9 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9316,7 +9682,9 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9353,7 +9721,9 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9390,7 +9760,9 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9427,7 +9799,9 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9464,7 +9838,9 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9501,7 +9877,9 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9538,7 +9916,9 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9575,7 +9955,9 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9612,7 +9994,9 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9649,7 +10033,9 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9686,7 +10072,9 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9723,7 +10111,9 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9760,7 +10150,9 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9797,7 +10189,9 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9834,7 +10228,9 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9871,7 +10267,9 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9908,7 +10306,9 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9945,7 +10345,9 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9982,7 +10384,9 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10019,7 +10423,9 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10056,7 +10462,9 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10093,7 +10501,9 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10130,7 +10540,9 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10167,7 +10579,9 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10204,7 +10618,9 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10241,7 +10657,9 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10278,7 +10696,9 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10315,7 +10735,9 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10352,7 +10774,9 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10389,7 +10813,9 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10426,7 +10852,9 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10463,7 +10891,9 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10500,7 +10930,9 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10537,7 +10969,9 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10574,7 +11008,9 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10611,7 +11047,9 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10648,7 +11086,9 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10685,7 +11125,9 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10722,7 +11164,9 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10759,7 +11203,9 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10796,7 +11242,9 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10833,7 +11281,9 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10870,7 +11320,9 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10907,7 +11359,9 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10944,7 +11398,9 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10981,7 +11437,9 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11018,7 +11476,9 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11055,7 +11515,9 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11092,7 +11554,9 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11129,7 +11593,9 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11166,7 +11632,9 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11203,7 +11671,9 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11240,7 +11710,9 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11277,7 +11749,9 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11314,7 +11788,9 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11351,7 +11827,9 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11388,7 +11866,9 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11425,7 +11905,9 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11462,7 +11944,9 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11499,7 +11983,9 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11536,7 +12022,9 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11573,7 +12061,9 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11610,7 +12100,9 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11647,7 +12139,9 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11684,7 +12178,9 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11721,7 +12217,9 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11758,7 +12256,9 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11795,7 +12295,9 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11832,7 +12334,9 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11869,7 +12373,9 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11906,7 +12412,9 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11943,7 +12451,9 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11980,7 +12490,9 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12017,7 +12529,9 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12054,7 +12568,9 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12091,7 +12607,9 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12128,7 +12646,9 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12165,7 +12685,9 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12202,7 +12724,9 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12239,7 +12763,9 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12276,7 +12802,9 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12313,7 +12841,9 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12350,7 +12880,9 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12387,7 +12919,9 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12424,7 +12958,9 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12461,7 +12997,9 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12498,7 +13036,9 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12535,7 +13075,9 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12572,7 +13114,9 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12609,7 +13153,9 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12646,7 +13192,9 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12683,7 +13231,9 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12720,7 +13270,9 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12757,7 +13309,9 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12794,7 +13348,9 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12831,7 +13387,9 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12868,7 +13426,9 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12905,7 +13465,9 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12942,7 +13504,9 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12979,7 +13543,9 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13016,7 +13582,9 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13053,7 +13621,9 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13090,7 +13660,9 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>7.19</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13124,83 +13696,101 @@
         <v>-187179424.6576466</v>
       </c>
       <c r="H355" t="n">
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L355" t="n">
+        <v>1</v>
+      </c>
+      <c r="M355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="C356" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="D356" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="E356" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="F356" t="n">
+        <v>1885709.044487436</v>
+      </c>
+      <c r="G356" t="n">
+        <v>-185293715.6131591</v>
+      </c>
+      <c r="H356" t="n">
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L356" t="n">
+        <v>1</v>
+      </c>
+      <c r="M356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="C357" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="D357" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="E357" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="F357" t="n">
+        <v>489871.831</v>
+      </c>
+      <c r="G357" t="n">
+        <v>-185783587.4441591</v>
+      </c>
+      <c r="H357" t="n">
         <v>2</v>
       </c>
-      <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="K357" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L355" t="inlineStr"/>
-      <c r="M355" t="inlineStr"/>
-    </row>
-    <row r="356">
-      <c r="A356" s="1" t="n">
-        <v>354</v>
-      </c>
-      <c r="B356" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="C356" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="D356" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="E356" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="F356" t="n">
-        <v>1885709.044487436</v>
-      </c>
-      <c r="G356" t="n">
-        <v>-185293715.6131591</v>
-      </c>
-      <c r="H356" t="n">
-        <v>2</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
-      <c r="L356" t="n">
-        <v>1</v>
-      </c>
-      <c r="M356" t="inlineStr"/>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="n">
-        <v>355</v>
-      </c>
-      <c r="B357" t="n">
-        <v>8.789999999999999</v>
-      </c>
-      <c r="C357" t="n">
-        <v>8.77</v>
-      </c>
-      <c r="D357" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="E357" t="n">
-        <v>8.77</v>
-      </c>
-      <c r="F357" t="n">
-        <v>489871.831</v>
-      </c>
-      <c r="G357" t="n">
-        <v>-185783587.4441591</v>
-      </c>
-      <c r="H357" t="n">
-        <v>2</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
-        <v>1</v>
-      </c>
-      <c r="M357" t="inlineStr"/>
+        <v>1.214749652294854</v>
+      </c>
+      <c r="M357" t="n">
+        <v>1.043175487465181</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -13225,7 +13815,7 @@
         <v>-185957344.9424559</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13258,7 +13848,7 @@
         <v>-186501238.1871564</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13291,7 +13881,7 @@
         <v>-186734362.3226564</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13324,7 +13914,7 @@
         <v>-186836709.4845152</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -15799,7 +16389,7 @@
         <v>-189596957.39038</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -17779,17 +18369,11 @@
         <v>-189735878.7402955</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
-      </c>
-      <c r="I496" t="n">
-        <v>7.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17818,17 +18402,11 @@
         <v>-189662958.3509955</v>
       </c>
       <c r="H497" t="n">
-        <v>1</v>
-      </c>
-      <c r="I497" t="n">
-        <v>7.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17857,17 +18435,11 @@
         <v>-189662893.3509955</v>
       </c>
       <c r="H498" t="n">
-        <v>1</v>
-      </c>
-      <c r="I498" t="n">
-        <v>7.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17896,17 +18468,11 @@
         <v>-189493615.7498347</v>
       </c>
       <c r="H499" t="n">
-        <v>1</v>
-      </c>
-      <c r="I499" t="n">
-        <v>7.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17935,17 +18501,11 @@
         <v>-188890752.8033966</v>
       </c>
       <c r="H500" t="n">
-        <v>1</v>
-      </c>
-      <c r="I500" t="n">
-        <v>7.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17978,11 +18538,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18015,11 +18571,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18052,11 +18604,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18089,11 +18637,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18126,11 +18670,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18163,11 +18703,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18200,11 +18736,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18237,11 +18769,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -18274,11 +18802,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18311,11 +18835,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18348,11 +18868,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18385,11 +18901,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18422,11 +18934,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18459,11 +18967,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18496,11 +19000,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18533,11 +19033,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18570,11 +19066,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18607,11 +19099,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18644,11 +19132,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18681,11 +19165,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18718,11 +19198,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18755,11 +19231,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18792,11 +19264,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18829,11 +19297,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18866,11 +19330,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18903,11 +19363,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18940,11 +19396,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18977,11 +19429,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -19014,11 +19462,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -19051,11 +19495,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -19088,11 +19528,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -19121,16 +19557,14 @@
         <v>-188136622.2621029</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
+      <c r="L532" t="n">
+        <v>1</v>
+      </c>
       <c r="M532" t="inlineStr"/>
     </row>
     <row r="533">
@@ -19156,7 +19590,7 @@
         <v>-188031204.6827029</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19189,7 +19623,7 @@
         <v>-187952056.7520029</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19222,7 +19656,7 @@
         <v>-187952056.7520029</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19255,7 +19689,7 @@
         <v>-187117982.7929029</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19288,7 +19722,7 @@
         <v>-188691160.6423029</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19321,7 +19755,7 @@
         <v>-188572616.6619029</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19354,7 +19788,7 @@
         <v>-188575414.4960029</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19387,7 +19821,7 @@
         <v>-188631393.7165029</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19420,7 +19854,7 @@
         <v>-188797540.3029029</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19486,7 +19920,7 @@
         <v>-189312288.8380029</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -20047,7 +20481,7 @@
         <v>-190329299.741099</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -20080,7 +20514,7 @@
         <v>-190329359.741099</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -20113,7 +20547,7 @@
         <v>-189877605.222999</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -20146,7 +20580,7 @@
         <v>-189877605.222999</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -20179,7 +20613,7 @@
         <v>-189877595.222999</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -20212,7 +20646,7 @@
         <v>-190018749.585599</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -20245,7 +20679,7 @@
         <v>-189469817.3233709</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -20278,7 +20712,7 @@
         <v>-189478328.8277709</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -20311,7 +20745,7 @@
         <v>-189478328.8277709</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -20344,7 +20778,7 @@
         <v>-189484443.5112709</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -20509,7 +20943,7 @@
         <v>-188987437.289344</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -20542,7 +20976,7 @@
         <v>-188987437.289344</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -20575,7 +21009,7 @@
         <v>-188987437.289344</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -20608,7 +21042,7 @@
         <v>-189064277.144444</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -20641,7 +21075,7 @@
         <v>-189368049.589144</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
